--- a/moyusi/Keywords/Web/全部商品-微店上架商品.xlsx
+++ b/moyusi/Keywords/Web/全部商品-微店上架商品.xlsx
@@ -454,10 +454,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>F:\Dayu\moyusi\Keywords\Web\商品上传图片.exe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>点击-小程序分享图片按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -881,6 +877,9 @@
   <si>
     <t>//*[text()='微店上架商品']</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\jenkins\workspace\AutoTestinh-Web\moyusi\Keywords\Web\商品上传图片.exe</t>
   </si>
 </sst>
 </file>
@@ -1289,7 +1288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1378,11 +1377,11 @@
         <v>19</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F5" s="14"/>
     </row>
@@ -1546,7 +1545,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="12" t="s">
@@ -1792,10 +1791,10 @@
         <v>19</v>
       </c>
       <c r="B35" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="F35" s="11"/>
     </row>
@@ -1817,10 +1816,10 @@
         <v>19</v>
       </c>
       <c r="B37" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="F37" s="11"/>
     </row>
@@ -1903,10 +1902,10 @@
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F43" s="11"/>
     </row>
@@ -1915,7 +1914,7 @@
         <v>20</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
@@ -1944,14 +1943,14 @@
         <v>19</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C46" s="12">
         <v>0</v>
       </c>
       <c r="D46" s="19"/>
       <c r="E46" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F46" s="14"/>
     </row>
@@ -1973,7 +1972,7 @@
         <v>19</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D48" s="19"/>
       <c r="E48" s="12" t="s">
@@ -2025,7 +2024,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>69</v>
@@ -2037,7 +2036,7 @@
         <v>77</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F52" s="11"/>
     </row>
@@ -2046,14 +2045,14 @@
         <v>20</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C53" s="1">
         <v>1</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F53" s="11"/>
     </row>
@@ -2091,7 +2090,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>69</v>
@@ -2103,7 +2102,7 @@
         <v>999.99</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F56" s="11"/>
     </row>
@@ -2141,7 +2140,7 @@
         <v>19</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D59" s="19"/>
       <c r="E59" s="12" t="s">
@@ -2196,7 +2195,7 @@
         <v>88</v>
       </c>
       <c r="D63" t="s">
-        <v>89</v>
+        <v>187</v>
       </c>
       <c r="E63" s="12" t="s">
         <v>88</v>
@@ -2227,7 +2226,7 @@
       </c>
       <c r="D65" s="19"/>
       <c r="E65" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F65" s="14"/>
     </row>
@@ -2249,7 +2248,7 @@
         <v>88</v>
       </c>
       <c r="D67" t="s">
-        <v>89</v>
+        <v>187</v>
       </c>
       <c r="E67" s="12" t="s">
         <v>88</v>
@@ -2280,7 +2279,7 @@
       </c>
       <c r="D69" s="19"/>
       <c r="E69" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F69" s="14"/>
     </row>
@@ -2302,7 +2301,7 @@
         <v>88</v>
       </c>
       <c r="D71" t="s">
-        <v>89</v>
+        <v>187</v>
       </c>
       <c r="E71" s="12" t="s">
         <v>88</v>
@@ -2326,13 +2325,13 @@
         <v>9</v>
       </c>
       <c r="D73" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F73" s="21" t="s">
         <v>92</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F73" s="21" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="74" spans="1:6" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2347,7 +2346,7 @@
       </c>
       <c r="D74" s="19"/>
       <c r="E74" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F74" s="14"/>
     </row>
@@ -2362,10 +2361,10 @@
         <v>5</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F75" s="11"/>
     </row>
@@ -2374,13 +2373,13 @@
         <v>9</v>
       </c>
       <c r="D76" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="F76" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77" spans="1:6" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2395,7 +2394,7 @@
       </c>
       <c r="D77" s="19"/>
       <c r="E77" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F77" s="14"/>
     </row>
@@ -2410,10 +2409,10 @@
         <v>6</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F78" s="11"/>
     </row>
@@ -2422,13 +2421,13 @@
         <v>9</v>
       </c>
       <c r="D79" t="s">
+        <v>100</v>
+      </c>
+      <c r="E79" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="F79" t="s">
         <v>102</v>
-      </c>
-      <c r="F79" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="80" spans="1:6" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2443,7 +2442,7 @@
       </c>
       <c r="D80" s="19"/>
       <c r="E80" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F80" s="14"/>
     </row>
@@ -2458,10 +2457,10 @@
         <v>7</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F81" s="11"/>
     </row>
@@ -2470,13 +2469,13 @@
         <v>9</v>
       </c>
       <c r="D82" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E82" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="F82" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2491,7 +2490,7 @@
       </c>
       <c r="D83" s="19"/>
       <c r="E83" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F83" s="14"/>
     </row>
@@ -2506,10 +2505,10 @@
         <v>8</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F84" s="11"/>
     </row>
@@ -2518,13 +2517,13 @@
         <v>9</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2538,10 +2537,10 @@
         <v>9</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F86" s="14"/>
     </row>
@@ -2559,7 +2558,7 @@
         <v>1111</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F87" s="11"/>
     </row>
@@ -2568,13 +2567,13 @@
         <v>9</v>
       </c>
       <c r="D88" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="89" spans="1:6" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2589,7 +2588,7 @@
       </c>
       <c r="D89" s="19"/>
       <c r="E89" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F89" s="14"/>
     </row>
@@ -2604,10 +2603,10 @@
         <v>10</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F90" s="11"/>
     </row>
@@ -2616,13 +2615,13 @@
         <v>9</v>
       </c>
       <c r="D91" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E91" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E91" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="F91" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="92" spans="1:6" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2637,7 +2636,7 @@
       </c>
       <c r="D92" s="19"/>
       <c r="E92" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F92" s="14"/>
     </row>
@@ -2652,10 +2651,10 @@
         <v>11</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F93" s="11"/>
     </row>
@@ -2664,13 +2663,13 @@
         <v>9</v>
       </c>
       <c r="D94" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F94" s="21" t="s">
         <v>118</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F94" s="21" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="95" spans="1:6" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2678,26 +2677,26 @@
         <v>19</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D95" s="19"/>
       <c r="E95" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F95" s="14"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F96" s="11"/>
     </row>
@@ -2719,11 +2718,11 @@
         <v>19</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F98" s="11"/>
     </row>
@@ -2733,13 +2732,13 @@
       </c>
       <c r="B99" s="13"/>
       <c r="D99" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F99" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="100" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2760,24 +2759,24 @@
         <v>19</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E101" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D102" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="E102" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
@@ -2785,21 +2784,21 @@
         <v>19</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E103" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="104" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D104" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="E104" s="25" t="s">
         <v>153</v>
-      </c>
-      <c r="D104" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="E104" s="25" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
@@ -2807,10 +2806,10 @@
         <v>19</v>
       </c>
       <c r="B105" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E105" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="106" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2844,7 +2843,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>69</v>
@@ -2856,7 +2855,7 @@
         <v>888.99</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F108" s="11"/>
     </row>
@@ -2878,11 +2877,11 @@
         <v>19</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F110" s="11"/>
     </row>
@@ -2892,13 +2891,13 @@
       </c>
       <c r="B111" s="13"/>
       <c r="D111" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F111" s="21" t="s">
         <v>157</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F111" s="21" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="112" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2976,13 +2975,13 @@
         <v>20</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C117" s="1">
         <v>1</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
@@ -2990,13 +2989,13 @@
         <v>19</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C118" s="1">
         <v>0</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="119" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3017,13 +3016,13 @@
         <v>31</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E120" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E120" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="F120" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -3031,10 +3030,10 @@
         <v>19</v>
       </c>
       <c r="B121" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E121" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -3042,13 +3041,13 @@
         <v>9</v>
       </c>
       <c r="D122" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F122" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="123" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">

--- a/moyusi/Keywords/Web/全部商品-微店上架商品.xlsx
+++ b/moyusi/Keywords/Web/全部商品-微店上架商品.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -867,10 +867,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//*[@class='el-cascader-menus el-popper']/ul[1]/li[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>点击-第二个一级品牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -880,6 +876,10 @@
   </si>
   <si>
     <t>F:\jenkins\workspace\AutoTestinh-Web\moyusi\Keywords\Web\商品上传图片.exe</t>
+  </si>
+  <si>
+    <t>//*[@class='el-cascader-menus el-popper']/ul[1]/li[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1288,8 +1288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1377,7 +1377,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="12" t="s">
@@ -1943,14 +1943,14 @@
         <v>19</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C46" s="12">
         <v>0</v>
       </c>
       <c r="D46" s="19"/>
       <c r="E46" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F46" s="14"/>
     </row>
@@ -2195,7 +2195,7 @@
         <v>88</v>
       </c>
       <c r="D63" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E63" s="12" t="s">
         <v>88</v>
@@ -2248,7 +2248,7 @@
         <v>88</v>
       </c>
       <c r="D67" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E67" s="12" t="s">
         <v>88</v>
@@ -2301,7 +2301,7 @@
         <v>88</v>
       </c>
       <c r="D71" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E71" s="12" t="s">
         <v>88</v>

--- a/moyusi/Keywords/Web/全部商品-微店上架商品.xlsx
+++ b/moyusi/Keywords/Web/全部商品-微店上架商品.xlsx
@@ -875,11 +875,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>F:\jenkins\workspace\AutoTestinh-Web\moyusi\Keywords\Web\商品上传图片.exe</t>
-  </si>
-  <si>
     <t>//*[@class='el-cascader-menus el-popper']/ul[1]/li[1]</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\jenkins\workspace\Auto-Testing-Web\moyusi\Keywords\Web\商品上传图片.exe</t>
   </si>
 </sst>
 </file>
@@ -1289,7 +1289,7 @@
   <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1943,7 +1943,7 @@
         <v>19</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C46" s="12">
         <v>0</v>
@@ -2195,7 +2195,7 @@
         <v>88</v>
       </c>
       <c r="D63" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E63" s="12" t="s">
         <v>88</v>
@@ -2248,7 +2248,7 @@
         <v>88</v>
       </c>
       <c r="D67" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E67" s="12" t="s">
         <v>88</v>
@@ -2301,7 +2301,7 @@
         <v>88</v>
       </c>
       <c r="D71" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E71" s="12" t="s">
         <v>88</v>

--- a/moyusi/Keywords/Web/全部商品-微店上架商品.xlsx
+++ b/moyusi/Keywords/Web/全部商品-微店上架商品.xlsx
@@ -879,7 +879,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>F:\jenkins\workspace\Auto-Testing-Web\moyusi\Keywords\Web\商品上传图片.exe</t>
+    <t>F:\jenkins\workspace\AutoTesting-Web\moyusi\Keywords\Web\商品上传图片.exe</t>
   </si>
 </sst>
 </file>
